--- a/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_side-dishes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_side-dishes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656571-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Gluten-Free Side Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656579-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Mm0fmQVMxMyuNMkFmGYMqmYeI7o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1010900-mexican-quinoa-sueb-4x3-1-8d80361c9a4c42158820ddef27cb2318.jpg"
@@ -204,59 +545,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232453/mexican-quinoa/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Mexican Quinoa</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 cup quinoa, rinsed\n\n\n1 small onion, chopped\n\n\n2 cloves garlic, minced\n\n\n1  jalapeno pepper, seeded and chopped (Optional)\n\n\n1 (10 ounce) can diced tomatoes with green chile peppers (such as RO*TEL®)\n\n\n1 envelope gluten-free taco seasoning mix\n\n\n2 cups low-sodium chicken broth\n\n\n¼ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 cup quinoa, rinsed\n\n\n1 small onion, chopped\n\n\n2 cloves garlic, minced\n\n\n1  jalapeno pepper, seeded and chopped (Optional)\n\n\n1 (10 ounce) can diced tomatoes with green chile peppers (such as RO*TEL®)\n\n\n1 envelope gluten-free taco seasoning mix\n\n\n2 cups low-sodium chicken broth\n\n\n¼ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large skillet over medium heat; cook and stir quinoa and onion in hot oil until onion is translucent, about 5 minutes. Add garlic and jalapeño pepper to quinoa mixture and cook until garlic is fragrant and slightly softened, 1 or 2 more minutes."},{"recipe_directions":"Mix undrained can of diced tomatoes with green chile peppers, taco seasoning mix, and chicken broth into quinoa mixture. Bring to a boil, reduce heat to medium-low, and simmer until liquid has been absorbed, 15 to 20 minutes. Stir in cilantro."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"244\nCalories\n\n\n6g \nFat\n\n\n38g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656583-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pwQ-kmZNy7lWkv_LI8e2rfr0TTM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1006451-0655cb54367248dfae04ec42555c2ace.jpg"
@@ -269,59 +606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14583/scalloped-potatoes-for-the-bbq/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Scalloped Potatoes for the BBQ</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  red potatoes, thinly sliced\n\n\n1 sheet aluminum foil\n\n\n1 large onion, chopped\n\n\n¼ cup butter, cubed\n\n\n¼ cup chopped fresh basil\n\n\n4 cloves garlic, chopped\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  red potatoes, thinly sliced\n\n\n1 sheet aluminum foil\n\n\n1 large onion, chopped\n\n\n¼ cup butter, cubed\n\n\n¼ cup chopped fresh basil\n\n\n4 cloves garlic, chopped\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the grill for medium heat."},{"recipe_directions":"Layer potatoes on aluminum foil with onion, butter, basil, and garlic. Season with salt and pepper. Fold foil around potatoes to make a packet; seal well."},{"recipe_directions":"Place packet on the preheated grill over indirect heat and cook until potatoes are tender, about 30 minutes. Turn over packet halfway through cooking."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Scalloped Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"271\nCalories\n\n\n12g \nFat\n\n\n38g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656587-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fijVERxezi79f9vswAbUP_hIsoo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8798132-southern-dirty-rice-Dudette-4x3-1-c8af4c9f329946469c03a82f7587bd58.jpg"
@@ -335,59 +668,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25721/southern-dirty-rice/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Southern Dirty Rice</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ pound chicken gizzards, rinsed\n\n\n½ pound chicken livers, rinsed and trimmed\n\n\n1 tablespoon vegetable oil\n\n\n1  onion, finely chopped\n\n\n3 cloves garlic, minced\n\n\n2 cups uncooked white rice\n\n\n4 cups chicken broth\n\n\n  salt to taste\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n1 cup thinly sliced green onions"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ pound chicken gizzards, rinsed\n\n\n½ pound chicken livers, rinsed and trimmed\n\n\n1 tablespoon vegetable oil\n\n\n1  onion, finely chopped\n\n\n3 cloves garlic, minced\n\n\n2 cups uncooked white rice\n\n\n4 cups chicken broth\n\n\n  salt to taste\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n1 cup thinly sliced green onions'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pulse gizzards in a food processor, then pulse livers."},{"recipe_directions":"Heat oil in a large saucepan. Sauté onion and gizzards over medium heat, stirring constantly, until meat begins to brown, about 5 minutes. Add livers and garlic; cook, stirring constantly, until brown, about 3 minutes."},{"recipe_directions":"Add rice and stir until coated with oil. Add broth, salt, pepper, and cayenne pepper. Bring to a boil; reduce heat to simmer, cover, and cook for about 20 minutes, or until rice has absorbed liquid. Sprinkle with green onion and serve."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"252\nCalories\n\n\n4g \nFat\n\n\n42g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656590-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tw-cLelKemAoYhUcMtWdSKqmb4s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/293021-bec4f2c6db4643d08fa3ae94157130cb.jpg"
@@ -400,59 +729,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/63340/brussels-sprouts-with-mushrooms/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Brussels Sprouts with Mushrooms</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups Brussels sprouts, trimmed and halved\n\n\n5 tablespoons butter\n\n\n½ pound whole mushrooms\n\n\n½ cup chopped fresh parsley\n\n\n  fresh lemon juice\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups Brussels sprouts, trimmed and halved\n\n\n5 tablespoons butter\n\n\n½ pound whole mushrooms\n\n\n½ cup chopped fresh parsley\n\n\n  fresh lemon juice\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook Brussels sprouts in a pot of lightly salted boiling water for 15 minutes, or until fork-tender; strain through a colander, removing as much water as possible. Set aside."},{"recipe_directions":"Melt butter in a large skillet over medium-high heat. Cook and stir mushrooms until lightly browned."},{"recipe_directions":"Toss Brussels sprouts with mushrooms and sprinkle with parsley, lemon juice, salt, and pepper. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Brussels Sprouts"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"119\nCalories\n\n\n10g \nFat\n\n\n7g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656594-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TP7CmSbZkThc4SUtVtKC-Y0EXfA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/70277-1d71c935696f4edfb068476368fd2ad1.jpg"
@@ -465,59 +790,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25344/dolmathes/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Dolmathes</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n7"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup olive oil, divided\n\n\n1 ½ pounds onions, chopped\n\n\n1 ¾ cups uncooked white rice\n\n\n2  lemons, juiced\n\n\n2 tablespoons chopped fresh dill\n\n\n½ cup chopped fresh parsley\n\n\n2 tablespoons pine nuts\n\n\n1 (8 ounce) jar grape leaves, drained and rinsed"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup olive oil, divided\n\n\n1 ½ pounds onions, chopped\n\n\n1 ¾ cups uncooked white rice\n\n\n2  lemons, juiced\n\n\n2 tablespoons chopped fresh dill\n\n\n½ cup chopped fresh parsley\n\n\n2 tablespoons pine nuts\n\n\n1 (8 ounce) jar grape leaves, drained and rinsed'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Heat 2 tablespoons oil in a large saucepan over medium heat. Sauté onions in oil until tender. Stir in rice and cook until lightly browned. Pour in 3 1/2 cups water and 1/2 of the lemon juice. Reduce heat, cover, and simmer until all liquid is absorbed and rice is tender, about 20 minutes. Stir in dill, parsley, and pine nuts; remove from heat."},{"recipe_directions":"Remove stems from grape leaves and place 1 tablespoon rice mixture in the center of each. Fold in the sides and roll tightly. Place seam-side down in a baking dish and cover with remaining olive oil, lemon juice, and enough water to cover 1/2 of the dolmathes."},{"recipe_directions":"Cover with aluminum foil and bake in the preheated oven for 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"535\nCalories\n\n\n33g \nFat\n\n\n55g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656598-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jkollbEEKbzoW3kdMX5FoyccjyA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8183801-b476448b9a47407888ac2927a2081933.jpg"
@@ -530,59 +851,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246471/onigiri-japanese-rice-balls/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Onigiri (Japanese Rice Balls)</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 onigiri"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 cup jasmine rice\n\n\n  salt\n\n\n1 sheet nori (dry seaweed), cut into 1-inch strips, or as desired (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup jasmine rice\n\n\n  salt\n\n\n1 sheet nori (dry seaweed), cut into 1-inch strips, or as desired (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 2 cups water, rice, and a pinch of salt in a saucepan. Bring to a boil; reduce heat to medium-low and cover. Simmer, stirring occasionally to prevent rice from sticking, until rice is tender and liquid has been absorbed, 20 to 25 minutes. Fluff with a fork; cool rice until easily handled, about 10 minutes."},{"recipe_directions":"Fill a small bowl with water. Place 2 tablespoons of salt in another small bowl."},{"recipe_directions":"Dip hands in water and rub salt over hands. Take a handful of warm rice and form it into a ball; gently squish with your hands into an \"L\" or \"C\" shape, then apply gentle pressure to the sides to shape it into a triangle."},{"recipe_directions":"Wrap a strip of nori around the triangle, using a bit of water to help it stick if necessary."},{"recipe_directions":"Sushi rice can be used instead of jasmine rice if desired. Salt can be replaced with garlic salt, seasoned salt, or a mix of Chinese five-spice powder with salt."},{"recipe_directions":"If adding a filling, gently push on the rice ball in step 3 to create a small pocket for the filling."},{"recipe_directions":"It's important to shape rice while still warm otherwise it won't stick as well. This takes lots of practice and patience so don't be discouraged if you don't get it right the first time."},{"recipe_directions":"Nori is commonly used in sushi and can be found in most grocery stores or Asian markets. I usually cut into strips with scissors. Nori has a distinctly fishy smell and taste so if you don't like fish or sushi I would recommend not adding it."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n26g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656601-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G6-vwEltazE50LKPZTOqoBP625Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1013061-32d48b8396314f2da3cf48562f483f2a.jpg"
@@ -595,59 +912,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17971/carrot-rice/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Carrot Rice</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup basmati rice\n\n\n2 cups water\n\n\n¼ cup roasted peanuts\n\n\n1 tablespoon margarine\n\n\n1  onion, sliced\n\n\n1 teaspoon minced fresh ginger root\n\n\n¾ cup grated carrots\n\n\n  salt to taste\n\n\n  cayenne pepper to taste\n\n\n  chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup basmati rice\n\n\n2 cups water\n\n\n¼ cup roasted peanuts\n\n\n1 tablespoon margarine\n\n\n1  onion, sliced\n\n\n1 teaspoon minced fresh ginger root\n\n\n¾ cup grated carrots\n\n\n  salt to taste\n\n\n  cayenne pepper to taste\n\n\n  chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine rice and water in a medium saucepan. Bring to a boil over high heat. Reduce heat to low, cover with lid, and allow to steam until tender, about 20 minutes."},{"recipe_directions":"While rice is cooking, grind peanuts in a blender and set aside. Heat the margarine in a skillet over medium heat. Stir in the onion; cook and stir until the onion has softened and turned golden brown about 10 minutes. Stir in ginger, carrots, and salt to taste. Reduce heat to low and cover to steam 5 minutes. Stir in cayenne pepper and peanuts. When rice is done, add it to skillet and stir gently to combine with other ingredients. Garnish with chopped cilantro."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n5g \nFat\n\n\n30g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656606-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/a1faXhAnj1YgqOo3w1Bi5HZqkOE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/6867744-6a4340d9160c43eaaf983dd9c74cc83d.jpg"
@@ -660,59 +973,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274979/kohlrabi-noodles-with-bacon-and-parmesan/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Kohlrabi "Noodles" with Bacon and Parmesan</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 (8 to 10 ounce) kohlrabi bulbs, trimmed and peeled\n\n\n4 slices bacon, cut into small pieces\n\n\n½ medium yellow onion, sliced\n\n\n1 tablespoon olive oil, or as needed (Optional)\n\n\n  salt to taste\n\n\n2 tablespoons butter\n\n\n⅓ cup grated Parmesan cheese, divided\n\n\n2 tablespoons minced fresh parsley (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 (8 to 10 ounce) kohlrabi bulbs, trimmed and peeled\n\n\n4 slices bacon, cut into small pieces\n\n\n½ medium yellow onion, sliced\n\n\n1 tablespoon olive oil, or as needed (Optional)\n\n\n  salt to taste\n\n\n2 tablespoons butter\n\n\n⅓ cup grated Parmesan cheese, divided\n\n\n2 tablespoons minced fresh parsley (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut kohlrabi into thin noodles using a spiralizer."},{"recipe_directions":"Heat a large skillet over medium heat. Add bacon and onion; brown until bacon is beginning to crisp and onion is caramelized but not burning, 10 to 12 minutes. Transfer to a small bowl, reserving 1 tablespoon bacon grease in the skillet. (If there is not enough bacon grease, add enough oil to make 1 tablespoon grease.)"},{"recipe_directions":"Add kohlrabi to the skillet and season with salt. Cook over medium heat, stirring occasionally, until kohlrabi begins to wilt and soften, 12 to 14 minutes. Stir in butter until melted. Add bacon and onion mixture and stir in 1/2 of the Parmesan."},{"recipe_directions":"Serve immediately topped with remaining Parmesan and parsley."},{"recipe_directions":"These also make a great low-carb alternative to hash browns; simply cut the noodles into short lengths before frying."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"202\nCalories\n\n\n15g \nFat\n\n\n11g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656612-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lTX-NOJTMlkTRKJA3NqKgaFkWYI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/6448629-c860f205aa374a8db4d32fd7bce1255f.jpg"
@@ -725,59 +1034,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218890/100-fruit-cake/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>100% Fruit "Cake"</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  seedless watermelon\n\n\n2 cups strawberries, hulled and sliced\n\n\n1  cantaloupe - seeded, peeled, and sliced (Optional)\n\n\n1  fresh pineapple - peeled, cored, and sliced (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  seedless watermelon\n\n\n2 cups strawberries, hulled and sliced\n\n\n1  cantaloupe - seeded, peeled, and sliced (Optional)\n\n\n1  fresh pineapple - peeled, cored, and sliced (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To create the base tier of the cake, cut 3 slices of watermelon, 1 to 2 inches thick, crossways through the center of the melon. Trim the rind from the watermelon slices, and place the largest slice onto a cake plate. Alternate layering sliced strawberries, slices of cantaloupe, and slices of fresh pineapple; follow with the second-largest watermelon slice. Repeat once more to make a layered fruit stack that looks like a cake."},{"recipe_directions":"Thinly slice a few pieces of remaining melon and pineapple. With cookie cutters or a sharp knife, cut remaining fruit slices into decorative shapes. Decorate the cake tiers with the cut fruit shapes and remaining berries."},{"recipe_directions":"Refrigerate until serving time. To serve, slice the cake with a sharp knife, one wedge at a time, and set the wedge onto a plate."},{"recipe_directions":"I used defrosted and drained blueberries and they were fine. Chopped grapes made a nice \"salsa\" on the side. Shredded coconut can also be sprinkled on top to decorate."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n1g \nFat\n\n\n59g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656617-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0u8KC_NPy-ccopqGgy2xk7U9LZc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/147007-aa9615e43b874450857219b75e5e16c8.jpg"
@@ -790,59 +1095,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/41455/peas-with-mushrooms/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Peas with Mushrooms</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 small onion, chopped\n\n\n2 cloves garlic, minced\n\n\n2 tablespoons butter\n\n\n1 (10 ounce) package frozen green peas, thawed\n\n\n1 (4.5 ounce) jar sliced mushrooms, drained\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried thyme\n\n\n1 pinch black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 small onion, chopped\n\n\n2 cloves garlic, minced\n\n\n2 tablespoons butter\n\n\n1 (10 ounce) package frozen green peas, thawed\n\n\n1 (4.5 ounce) jar sliced mushrooms, drained\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried thyme\n\n\n1 pinch black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook peas according to package directions. Set aside."},{"recipe_directions":"Melt butter in a skillet over medium heat. Saute onion and garlic in butter until tender, about 5 minutes. Stir in the peas and mushrooms, then season with sugar, salt, thyme and pepper. Reduce heat to low, and cook just until heated through."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Peas"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n6g \nFat\n\n\n15g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656622-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3toFr_pNtYy1BqsbHBbh6UHzwf8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/82070-4d6f9f4d6be640d994e93476494327d1.jpg"
@@ -855,59 +1156,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17043/slow-cooker-baked-beans-with-ham-hock/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Slow Cooker Baked Beans with Ham Hock</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 5 hrs\n\n\nTotal Time:\n 6 hrs\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"24 ounces dry white beans\n\n\n1 pound ham hocks\n\n\n1  onion, chopped\n\n\n½ cup packed brown sugar\n\n\n½ cup maple syrup\n\n\n1 teaspoon salt\n\n\n1 cup water\n\n\n½ cup ketchup\n\n\n2 tablespoons prepared mustard"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '24 ounces dry white beans\n\n\n1 pound ham hocks\n\n\n1  onion, chopped\n\n\n½ cup packed brown sugar\n\n\n½ cup maple syrup\n\n\n1 teaspoon salt\n\n\n1 cup water\n\n\n½ cup ketchup\n\n\n2 tablespoons prepared mustard'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large pot over high heat, combine the beans with water to cover and bring to a boil for 10 minutes. Remove from heat but let sit for 1 hour. Drain beans and place them in a slow cooker. Add the ham hocks, onion, brown sugar, maple syrup, salt and water."},{"recipe_directions":"Mix well, cover and cook on high setting for 4 to 5 hours, stirring occasionally. During the final hour of cooking, add the ketchup and mustard, remove the ham from the hocks and discard the hocks. Mix well and serve."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Baked Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"363\nCalories\n\n\n9g \nFat\n\n\n54g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656628-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G-rl7YGmi-68xjlR0AXvY9fJiGM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/230117-gluten-free-thanksgiving-stuffing-MelissaGoff-2x1-1-6ac102769d24418fb399adb5ee426130.jpg"
@@ -921,59 +1218,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230117/gluten-free-thanksgiving-stuffing/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Gluten-Free Thanksgiving Stuffing</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 pound) loaf gluten-free bread (such as Udi's® Millet-Chia bread)\n\n\n3 tablespoons olive oil\n\n\n2 medium onions, diced\n\n\n3 stalks celery, diced\n\n\n1 teaspoon chopped fresh sage\n\n\n1 teaspoon dried thyme leaves\n\n\n¾ teaspoon salt\n\n\n  ground black pepper to taste\n\n\n2 cups gluten-free chicken broth\n\n\n2 large eggs, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (1 pound) loaf gluten-free bread (such as Udi's® Millet-Chia bread)\n\n\n3 tablespoons olive oil\n\n\n2 medium onions, diced\n\n\n3 stalks celery, diced\n\n\n1 teaspoon chopped fresh sage\n\n\n1 teaspoon dried thyme leaves\n\n\n¾ teaspoon salt\n\n\n  ground black pepper to taste\n\n\n2 cups gluten-free chicken broth\n\n\n2 large eggs, beaten"}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This gluten-free stuffing, which is overflowing with classic Thanksgiving flavor, will quickly earn a permanent spot in your recipe box."},{"recipe_directions":"Here's what you'll need to make this crowd-pleasing gluten-free stuffing:"},{"recipe_directions":"· Gluten-free bread: Choose a gluten-free loaf with thick, hearty slices (such as Canyon Bakehouse Heritage).\n· Vegetables: You'll need onions and celery for this gluten-free stuffing recipe.\n· Oil: The onions and celery are cooked in olive oil until tender.\n· Spices and seasonings: This gluten-free stuffing is seasoned with fresh sage, dried thyme, salt, and pepper.\n· Gluten-free broth: Many commercial broth brands contain gluten or are prepared alongside products that contain gluten, so make sure the carton or can has a gluten-free label.\n· Eggs: Two large eggs add moisture and help hold the stuffing together."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect when you make this gluten-free stuffing:"},{"recipe_directions":"1. Toast bread: Cube the bread, then arrange the cubes in a single layer on a baking sheet. Bake in a preheated oven until crisp.\n2. Cook vegetables: Cook the celery and onions in olive oil until they're tender. Season with sage, thyme, salt, and pepper.\n3. Mix ingredients: Add the remaining ingredients (including the toasted bread) to the skillet and mix well.\n4. Bake stuffing: Transfer the mixture to a prepared baking dish. Cover and bake in a preheated oven for about 30 minutes, then uncover and bake until the top is crisp and lightly browned."},{"recipe_directions":"The beauty of this gluten-free stuffing? It's easy to customize! As delicious as it is on its own, the recipe leaves lots of room for creativity. Try adding one of these tasty ingredients: sausage, rosemary, mushrooms, apple chunks, dried cranberries, or raisins."},{"recipe_directions":"Store your leftover gluten-free stuffing in an airtight container for up to four days. Reheat in the microwave or in the oven. Add a bit of broth to prevent the stuffing from drying out during the reheating process, if you like."},{"recipe_directions":"Yes, you can freeze this gluten-free stuffing for up to three months. In serving-sized portions, place the turkey dressing in zip-top freezer bags or another freezer-safe container. Wrap in a layer of foil for extra protection. Reheat in the oven from frozen."},{"recipe_directions":"\"I used homemade turkey stock in lieu of chicken broth and was out of celery, so I added a handful of chopped pecans for crunchiness,\" says pamela."},{"recipe_directions":"\"I made this for dinner one night with cheese and cranberry sauce, once for Thanksgiving, and again just for a regular chicken dinner,\" according to Allrecipes Allster Buckwheat Queen. \"It is fantastic for every day, as well as special occasions."},{"recipe_directions":"\"Delicious,\" raves to Matt Rubin. \"The sage and vegetables give it a great flavor along with the chicken stock! And it was pretty easy to make.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Grease a 3-quart baking dish."},{"recipe_directions":"Cut bread into 3/4-inch cubes and spread into a single layer on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until crisp, 12 to 17 minutes."},{"recipe_directions":"Meanwhile, heat olive oil in a large skillet over medium heat. Add onions and celery; cook and stir until soft, 8 to 10 minutes. Stir in sage, thyme, salt, and pepper."},{"recipe_directions":"Add toasted bread cubes, chicken broth, and beaten eggs to the skillet. Stir until well combined, then transfer mixture to a greased 3-quart baking dish."},{"recipe_directions":"Cover and bake in the preheated oven for 30 minutes. Uncover and continue baking until the top is crisp and lightly browned, about 10 more minutes."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Stuffing and Dressing Recipes"},{"recipe_tags":"Bread Stuffing and Dressing Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"245\nCalories\n\n\n12g \nFat\n\n\n31g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656635-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bN9Ku_IcMmIzkIo6DVUNU__a2qU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/381619-e9a645ef277a4e18bec375f0cdc010f7.jpg"
@@ -986,59 +1279,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/46028/herbed-mushrooms-with-white-wine/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Herbed Mushrooms with White Wine</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 ½ pounds fresh mushrooms\n\n\n1 teaspoon Italian seasoning\n\n\n¼ cup dry white wine\n\n\n2 cloves garlic, minced\n\n\n  salt and pepper to taste\n\n\n2 tablespoons chopped fresh chives"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 ½ pounds fresh mushrooms\n\n\n1 teaspoon Italian seasoning\n\n\n¼ cup dry white wine\n\n\n2 cloves garlic, minced\n\n\n  salt and pepper to taste\n\n\n2 tablespoons chopped fresh chives'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a skillet over medium heat. Place mushrooms in the skillet, season with Italian seasoning, and cook 10 minutes, stirring frequently."},{"recipe_directions":"Mix the wine and garlic into the skillet, and continue cooking until most of the wine has evaporated. Season with salt and pepper, and sprinkle with chives. Continue cooking 1 minute."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"57\nCalories\n\n\n3g \nFat\n\n\n6g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656641-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oyPqt8QttA4Gn0KM3SP9v2NPmds=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1119926-62aeb0c5058b46a1ba38c9d2dec1c671.jpg"
@@ -1051,59 +1340,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/56195/green-bean-and-bacon-saute/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Green Bean and Bacon Saute</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 slices bacon, diced\n\n\n1 tablespoon crushed garlic\n\n\n½ teaspoon crushed red pepper flakes\n\n\n2 (10 ounce) packages frozen whole green beans\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 slices bacon, diced\n\n\n1 tablespoon crushed garlic\n\n\n½ teaspoon crushed red pepper flakes\n\n\n2 (10 ounce) packages frozen whole green beans\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook bacon in a large skillet set over medium-high heat until crisp. Use a slotted spoon to remove bacon pieces and drain them on a paper towel-lined plate. Pour off excess grease from the skillet, leaving about 2 tablespoons in the pan."},{"recipe_directions":"Add the garlic and red pepper flakes to the bacon grease and cook over medium-high heat until fragrant, about 1 minute. Add green beans and season with salt and pepper. Cook and stir until beans are tender but still a little crunchy, about 10 minutes. Return bacon to the pan and toss with the beans before serving."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"83\nCalories\n\n\n5g \nFat\n\n\n5g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656646-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ehdeMFVXJ36VQNCB5W2G7bv2AeU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/7035418-65e1b939a47544da90701a4b6fd4fd5d.jpg"
@@ -1116,59 +1401,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273116/instant-pot-quinoa/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Instant Pot® Quinoa</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n1 cup quinoa, rinsed and drained"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup quinoa, rinsed and drained'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water and quinoa in a multi-functional pressure cooker (such as Instant Pot®); mix well. Close and lock the lid; set the pressure release valve to the sealing position. Press Steam button twice and set timer for 5 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"313\nCalories\n\n\n5g \nFat\n\n\n55g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656651-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f5LOBU3uparqmp0S-7fxAlF2BJA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Gluten-Free-Scalloped-Potatoes-1x1-1-2000-e5ce0875c17b4321b4d946022c9aa6be.jpg"
@@ -1182,59 +1463,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278730/gluten-free-scalloped-potatoes/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Gluten-Free Scalloped Potatoes</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons unsalted butter\n\n\n2 ½ tablespoons cornstarch\n\n\n⅛ teaspoon cayenne pepper\n\n\n1 ½ cups milk\n\n\n4 ounces shredded sharp Cheddar cheese\n\n\n5 medium Idaho potatoes, peeled and thinly sliced\n\n\n½ cup grated reduced-sodium Parmesan cheese (Optional)\n\n\n1 pinch paprika, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons unsalted butter\n\n\n2 ½ tablespoons cornstarch\n\n\n⅛ teaspoon cayenne pepper\n\n\n1 ½ cups milk\n\n\n4 ounces shredded sharp Cheddar cheese\n\n\n5 medium Idaho potatoes, peeled and thinly sliced\n\n\n½ cup grated reduced-sodium Parmesan cheese (Optional)\n\n\n1 pinch paprika, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a large microwave- and oven-safe casserole dish with parchment."},{"recipe_directions":"Place butter in a large microwave-safe bowl. Microwave, uncovered, on high until melted, 30 to 45 seconds. Whisk in cornstarch and cayenne pepper to form a paste. Add milk and whisk until well blended. Microwave on high for 2 minutes. Stir, and microwave until thick, another 2 minutes. Stir in Cheddar cheese."},{"recipe_directions":"Place 1/2 of the potatoes in the prepared casserole dish and spread 1/2 of the sauce over top. Repeat with remaining potatoes and sauce. Sprinkle Parmesan cheese and paprika over top."},{"recipe_directions":"Microwave, covered, on high for 10 minutes."},{"recipe_directions":"Meanwhile, preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Transfer potatoes to the preheated oven and bake, uncovered, until sauce is bubbly and potatoes are tender, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Scalloped Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n12g \nFat\n\n\n29g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656656-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F-YADwV_CG5s9uuQOOafOofPG08=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/8572244-7277f3aed4614238a106dfe11d7fb646.jpg"
@@ -1247,59 +1524,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22161/basmati-rice/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Basmati Rice</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¾ cups water\n\n\n1 cup basmati rice\n\n\n¼ cup frozen green peas\n\n\n1 teaspoon cumin seeds"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¾ cups water\n\n\n1 cup basmati rice\n\n\n¼ cup frozen green peas\n\n\n1 teaspoon cumin seeds'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan bring water to a boil. Add rice and stir. Reduce heat, cover and simmer for 20 minutes."},{"recipe_directions":"When rice is cooked, stir in peas and cumin. Cover and let stand for 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"175\nCalories\n\n\n1g \nFat\n\n\n38g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656662-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LVzGrrXsfwxJK8WmTMPitMjmm3U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5991887-green-beans-with-cherry-tomatoes-Robert-Guimont-4x3-1-c5816c984bee400d99d5a1cf72cc18aa.jpg"
@@ -1313,59 +1586,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/60616/green-beans-with-cherry-tomatoes/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Green Beans with Cherry Tomatoes</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds green beans, trimmed and cut into 2 inch pieces\n\n\n1 ½ cups water\n\n\n¼ cup butter\n\n\n1 tablespoon sugar\n\n\n¾ teaspoon garlic salt\n\n\n¼ teaspoon pepper\n\n\n1 ½ teaspoons chopped fresh basil\n\n\n2 cups cherry tomato halves"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds green beans, trimmed and cut into 2 inch pieces\n\n\n1 ½ cups water\n\n\n¼ cup butter\n\n\n1 tablespoon sugar\n\n\n¾ teaspoon garlic salt\n\n\n¼ teaspoon pepper\n\n\n1 ½ teaspoons chopped fresh basil\n\n\n2 cups cherry tomato halves'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place beans and water in a large saucepan. Cover, and bring to a boil. Set heat to low, and simmer until tender, about 10 minutes. Drain off water, and set aside."},{"recipe_directions":"Melt butter in a skillet over medium heat. Stir in sugar, garlic salt, pepper and basil. Add tomatoes, and cook stirring gently just until soft. Pour the tomato mixture over the green beans, and toss gently to blend."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"122\nCalories\n\n\n8g \nFat\n\n\n13g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656667-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6dPqK9hfUYWxdCYuaNa99VODdB8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/289571-c637dde72d024a0d9405436e2f5cdc8c.jpg"
@@ -1378,59 +1647,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/82184/middle-eastern-white-beans/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Middle Eastern White Beans</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups dried white kidney beans, soaked overnight\n\n\n3 tablespoons tomato paste\n\n\n1 tablespoon red pimento sauce\n\n\n3 cloves garlic, chopped\n\n\n3 medium onions, chopped\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon ground cumin\n\n\n2 tablespoons olive oil\n\n\n  salt and pepper to taste\n\n\n1 (14.5 ounce) can beef broth"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups dried white kidney beans, soaked overnight\n\n\n3 tablespoons tomato paste\n\n\n1 tablespoon red pimento sauce\n\n\n3 cloves garlic, chopped\n\n\n3 medium onions, chopped\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon ground cumin\n\n\n2 tablespoons olive oil\n\n\n  salt and pepper to taste\n\n\n1 (14.5 ounce) can beef broth'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a slow cooker combine the beans, tomato paste, pimento sauce, garlic, onions, cumin, lemon juice, olive oil, salt and pepper. Mix until the beans are coated. Pour in beef broth, and top off with enough water to completely cover the beans."},{"recipe_directions":"Cover, and cook on High for 6 hours, or until the beans are tender and the liquid is thickened. It should not be soupy."},{"recipe_directions":"To make on the stove top, follow step one, but place in a large pot on the stove. Simmer over medium heat for about 1 hour, or until thickened."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"229\nCalories\n\n\n5g \nFat\n\n\n37g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656672-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/41XzFpyofVrVCN-nUcD6AOsav58=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1461x0:1463x2):format(webp)/5069487-0837d869fc79472db0944f8fa84a3775.jpg"
@@ -1443,59 +1708,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262462/sheet-pan-vegan-roasted-eggplant-with-garlic/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Sheet Pan Vegan Roasted Eggplant with Garlic</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  eggplant, cut crosswise into 1/2-inch slices\n\n\n2 tablespoons olive oil\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon Italian seasoning\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  eggplant, cut crosswise into 1/2-inch slices\n\n\n2 tablespoons olive oil\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon Italian seasoning\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Place eggplant slices in a single layer on the baking sheet. Drizzle with olive oil and sprinkle with garlic powder, smoked paprika, and Italian seasoning."},{"recipe_directions":"Roast in the preheated oven until golden and crispy, about 25 minutes. Sprinkle with salt."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Eggplant"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"96\nCalories\n\n\n7g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656680-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/umIo9mlIbGyyU5D5mxOAwxePqtE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/673994-zucchini-noodles-KGora-4x3-1-61e0d215b234415d9a6902421c0cdda4.jpg"
@@ -1509,59 +1770,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/172398/zucchini-noodles/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Zucchini Noodles</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  zucchini\n\n\n2 teaspoons salt\n\n\n3 tablespoons butter\n\n\n1 clove garlic, minced (Optional)\n\n\n  salt and black pepper to taste\n\n\n¼ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  zucchini\n\n\n2 teaspoons salt\n\n\n3 tablespoons butter\n\n\n1 clove garlic, minced (Optional)\n\n\n  salt and black pepper to taste\n\n\n¼ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lighten up your dinner with homemade zucchini noodles (a.k.a. zoodles)."},{"recipe_directions":"While you can cut a zucchini into noodle-like strips using a sharp knife, it would be tedious work. We recommend using a mandoline or, better yet, a spiralizer. If you’re short on time or patience, you can buy frozen zucchini noodles at most grocery stores."},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you cook zucchini noodles:"},{"recipe_directions":"These zucchini noodles work well as-is when served as a light side dish. They’d pair perfectly with just about any summertime entrée! You can also add a protein (such as chicken or shrimp) if you’d like to enjoy it as a main dish. Check out our collection of 22 Low-Carb Zucchini Noodle (Zoodle) Recipes for delicious inspiration."},{"recipe_directions":"The zucchini noodles will taste best just after you cook them. If you’d like to spiralize or cut the zucchini noodles up to three days in advance, store them in an airtight container lined with paper towels in the refrigerator. Cook the zoodles just before serving."},{"recipe_directions":"Sure! Again, though, it’s best to cook the zucchini noodles just before serving. Plan to freeze them raw. You can freeze zucchini noodles for up to five months. There’s no need to thaw — simply cook them from frozen."},{"recipe_directions":"Allrecipes Community Tips and Praise"},{"recipe_directions":"“Yummy and a great way to use the runaway zucchini,” according to jules. “I like it without a sauce. Fresh garlic and Parmesan cheese make a great veggie side dish.”"},{"recipe_directions":"“I found that cooking the zucchini noodles in tomato sauce for an additional 5ish minutes really gives them a great flavor,” says SingerGirl615."},{"recipe_directions":"“This is my new favorite way to prepare zucchini,” raves SilVeeSpice. “Why? Because it is so quick, simple and delicious! I also like to include chili flakes when I add the garlic and tend to omit the Parmesan — although it is tasty as well.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Cut zucchini into thin, noodle-like strips (a mandoline works well for this). Toss with 2 teaspoons salt, and place in a colander to drain for 30 minutes."},{"recipe_directions":"Bring a pot of water to boil. Add zucchini; cook for one minute. Drain; rinse immediately with cold water to stop cooking."},{"recipe_directions":"Heat butter in a large skillet over medium high heat. Add zucchini and garlic; cook and stir until just tender, about 5 minutes. Season to taste with salt and pepper. Sprinkle with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"141\nCalories\n\n\n10g \nFat\n\n\n10g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656690-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AACWauD0olkd3F2EIR3sCVLO1qI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/388884-1192c0240573464e82a08508aa530712.jpg"
@@ -1574,59 +1831,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57337/down-south-style-green-beans/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Down-South Style Green Beans</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups water\n\n\n1  ham hock\n\n\n2 tablespoons lard or other cooking fat\n\n\n1 teaspoon seasoning salt\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon onion powder\n\n\n1 pound fresh green beans - rinsed, trimmed and snapped into bite size pieces"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups water\n\n\n1  ham hock\n\n\n2 tablespoons lard or other cooking fat\n\n\n1 teaspoon seasoning salt\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon onion powder\n\n\n1 pound fresh green beans - rinsed, trimmed and snapped into bite size pieces'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the water, ham hock, and lard in a large pot over medium-high heat. Season with seasoning salt, salt, pepper, garlic powder, and onion powder. Bring to a boil, then reduce heat to medium-low, and add green beans. Simmer covered for about 2 hours."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n11g \nFat\n\n\n6g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656698-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4UhPi69o4F-somGE3KeVn9_sZcI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/998528-e77aa07dfe9243ca82836be6f832206e.jpg"
@@ -1639,59 +1892,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25922/quinoa-tabbouleh/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Quinoa Tabbouleh</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 cup quinoa\n\n\n1 pinch salt\n\n\n¼ cup olive oil\n\n\n½ teaspoon sea salt\n\n\n¼ cup lemon juice\n\n\n3  tomatoes, diced\n\n\n1  cucumber, diced\n\n\n2 bunches green onions, diced\n\n\n2  carrots, grated\n\n\n1 cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup quinoa\n\n\n1 pinch salt\n\n\n¼ cup olive oil\n\n\n½ teaspoon sea salt\n\n\n¼ cup lemon juice\n\n\n3  tomatoes, diced\n\n\n1  cucumber, diced\n\n\n2 bunches green onions, diced\n\n\n2  carrots, grated\n\n\n1 cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan bring water to a boil. Add quinoa and a pinch of salt. Reduce heat to low, cover and simmer for 15 minutes. Allow to cool to room temperature; fluff with a fork."},{"recipe_directions":"Meanwhile, in a large bowl, combine olive oil, sea salt, lemon juice, tomatoes, cucumber, green onions, carrots and parsley. Stir in cooled quinoa."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Tabbouleh"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"354\nCalories\n\n\n17g \nFat\n\n\n46g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656706-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9bqp5YMEtu-abp5T02qXtR9vTLQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2309630-3912c65b980c45c692d9e47f27acdb59.jpg"
@@ -1704,59 +1953,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240068/slow-cooker-spaghetti-squash/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Slow Cooker Spaghetti Squash</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 4 hrs\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 4 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  whole spaghetti squash, washed thoroughly\n\n\n1 ½ cups water"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  whole spaghetti squash, washed thoroughly\n\n\n1 ½ cups water'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prick outside of squash 10 to 15 times and place in a slow cooker crock. Pour water into crock."},{"recipe_directions":"Cook on Low 4 to 6 hours. Remove squash to a cutting board until cool to the touch, 15 to 30 minutes."},{"recipe_directions":"Halve the squash lengthwise. Scoop seeds from the cavity and discard them. Shred flesh from the skin with a fork to make strands."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"54\nCalories\n\n\n1g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656713-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_pblnu0iGoQTaAYEgvUC5CS_CAY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/6963119-better-than-boxed-vegan-and-gluten-free-stuffing-fabeveryday-4x3-1-44131884332244139b7660db3e88be8c.jpg"
@@ -1770,59 +2015,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275552/better-than-boxed-vegan-and-gluten-free-stuffing/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Better-than-Boxed Vegan and Gluten-Free Stuffing</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"16 ounces vegan, gluten-free bread, cubed\n\n\n½ cup vegan butter (such as Earth Balance®)\n\n\n1 cup diced celery\n\n\n1 cup diced onion\n\n\n1 tablespoon dried parsley\n\n\n1 teaspoon dried sage\n\n\n1 teaspoon ground thyme\n\n\n¾ teaspoon garlic powder\n\n\n¾ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon dried rosemary\n\n\n¼ teaspoon dried marjoram\n\n\n2 cups vegetable broth\n\n\n  aluminum foil"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '16 ounces vegan, gluten-free bread, cubed\n\n\n½ cup vegan butter (such as Earth Balance®)\n\n\n1 cup diced celery\n\n\n1 cup diced onion\n\n\n1 tablespoon dried parsley\n\n\n1 teaspoon dried sage\n\n\n1 teaspoon ground thyme\n\n\n¾ teaspoon garlic powder\n\n\n¾ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon dried rosemary\n\n\n¼ teaspoon dried marjoram\n\n\n2 cups vegetable broth\n\n\n  aluminum foil'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Spread bread cubes out onto 2 baking sheets."},{"recipe_directions":"Bake in the preheated oven until bread cubes are dry and lightly toasted, about 10 minutes. Transfer to a large mixing bowl."},{"recipe_directions":"Melt vegan butter in a saucepan over medium-high heat. Add celery and onion and saute until vegetables are softened but celery still has a bit of snap, about 5 minutes. Season with parsley, sage, thyme, garlic powder, salt, pepper, rosemary, and marjoram. Cook and stir for 1 more minute. Stir in vegetable stock and bring to a boil, stirring occasionally. After it reaches a boil, remove from heat."},{"recipe_directions":"Pour stock, vegetable, and herb mixture over bread cubes in the mixing bowl. Stir gently until well combined. Cover the bowl with aluminum foil and let sit for 5 minutes. Remove foil, fluff stuffing with a fork, and serve."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Stuffing and Dressing Recipes"},{"recipe_tags":"Vegetarian Stuffing and Dressing Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"308\nCalories\n\n\n20g \nFat\n\n\n29g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656720-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/g6c7iCdkNnpdm1fUr_bB41qT0ys=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/610614-56c962aa7d6d4e6da97dbdd4027b8da3.jpg"
@@ -1835,59 +2076,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18288/garlic-green-beans/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Garlic Green Beans</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n3 tablespoons olive oil\n\n\n1 medium head garlic - peeled and sliced\n\n\n2 (14.5 ounce) cans green beans, drained\n\n\n  salt and pepper to taste\n\n\n¼ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n3 tablespoons olive oil\n\n\n1 medium head garlic - peeled and sliced\n\n\n2 (14.5 ounce) cans green beans, drained\n\n\n  salt and pepper to taste\n\n\n¼ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large skillet over medium heat, melt butter with olive oil; add garlic, and cook until lightly browned, stirring frequently. Stir in green beans, and season with salt and pepper. Cook until beans are tender, about 10 minutes. Remove from heat, and sprinkle with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n12g \nFat\n\n\n9g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656726-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yEy39wNa9TgqK5szSD9IYhpD3Bc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(722x0:724x2):format(webp)/5131084-3e69973ea95d4705bc46c6eb2f1d0e43.jpg"
@@ -1900,59 +2137,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18412/roasted-garlic-without-foil/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Roasted Garlic without Foil</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium head garlic\n\n\n2 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium head garlic\n\n\n2 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Method 1: Preheat oven to 250 degrees F (125 degrees C). Slice 1/4 inch off top of garlic bulb. Place in a small baking dish and drizzle with olive oil. Bake in preheated oven for 20 minutes, until outside is lightly browned and garlic cloves are soft. When cool enough to touch, squeeze each clove to extract softened garlic."},{"recipe_directions":"Method 2: Preheat oven to 250 degrees F (125 degrees C). Peel each garlic clove. Place in a single layer in a small baking dish and drizzle with olive oil. Bake for 15 minutes, until garlic is soft."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"81\nCalories\n\n\n7g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656732-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/n5CQBkrD9cWWNwZWWuU6tDfwzwc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/18414zesty-marinated-asparaguslutzflcat4x3-2ab3696aa45143a9bdf859a52967098d.jpg"
@@ -1966,59 +2199,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18414/zesty-marinated-asparagus/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Zesty Marinated Asparagus</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 2 hrs 25 mins\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds fresh asparagus, trimmed and cut into 2 1/2 inch pieces\n\n\n1 ½ cups balsamic vinaigrette salad dressing\n\n\n2 teaspoons grated lemon zest\n\n\n¼ cup chopped fresh parsley\n\n\n½ teaspoon kosher salt\n\n\n½ teaspoon freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds fresh asparagus, trimmed and cut into 2 1/2 inch pieces\n\n\n1 ½ cups balsamic vinaigrette salad dressing\n\n\n2 teaspoons grated lemon zest\n\n\n¼ cup chopped fresh parsley\n\n\n½ teaspoon kosher salt\n\n\n½ teaspoon freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil. Blanch asparagus just until tender, about 1 minute. Plunge into a bowl of cold water to cool. Drain asparagus and place in a large resealable plastic bag. Pour in vinaigrette and seal bag. Refrigerate at least 3 hours, turning bag occasionally."},{"recipe_directions":"Just before serving, drain asparagus, reserving vinaigrette. Arrange on a serving platter and sprinkle with lemon zest, parsley, salt, and pepper. Serve reserved vinaigrette in a small dish on the side."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"317\nCalories\n\n\n28g \nFat\n\n\n18g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656737-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vCbL4R77J4C3oIF4CTViI_8Yxws=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/105341-9175f6f872c045d1af7861dfbfc0620d.jpg"
@@ -2031,59 +2260,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14157/tomato-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Tomato Cucumber Salad</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tomatoes, cucumber, and onion in a salad bowl. Sprinkle with lemon juice; season with salt and black pepper. Mix until well combined. Place in the refrigerator to chill before serving."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"46\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656742-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SodMhRVAO8gPH7sX7X3RONvH0_0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/13829_Roasted-Garlic-Parmesan-Mashed-Potatoes_naples34102_904046_original-1x1-1-c48a67d9b3f24daba6c45ba4374be97a.jpg"
@@ -2097,59 +2322,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13829/roasted-garlic-parmesan-mashed-potatoes/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Roasted Garlic Parmesan Mashed Potatoes</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cloves garlic, peeled\n\n\n¼ cup olive oil\n\n\n7  baking potatoes, peeled and cubed\n\n\n½ cup milk\n\n\n¼ cup grated Parmesan cheese\n\n\n2 tablespoons butter\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cloves garlic, peeled\n\n\n¼ cup olive oil\n\n\n7  baking potatoes, peeled and cubed\n\n\n½ cup milk\n\n\n¼ cup grated Parmesan cheese\n\n\n2 tablespoons butter\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place garlic cloves in a small baking dish. Drizzle with olive oil, cover, and bake 45 minutes, or until golden brown."},{"recipe_directions":"Bring a large pot of lightly salted water to boil. Add potatoes, and cook until tender but firm. Drain, and transfer to a large mixing bowl."},{"recipe_directions":"Place roasted garlic, milk, Parmesan cheese, and butter into the bowl with the potatoes. Season with salt and pepper. Beat to desired consistency with an electric mixer."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Mashed Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"251\nCalories\n\n\n11g \nFat\n\n\n34g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656746-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Eca2Q8ygVgYG9h6U5SLfdBGaLPY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4556539-cauliflower-rice-biryani-style-France-C-4x3-1-7d1d0dd5fae0490c9b59c077a530c4c1.jpg"
@@ -2163,59 +2384,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259135/cauliflower-rice-biryani-style/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Cauliflower Rice (Biryani-Style)</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head cauliflower, broken into florets\n\n\n3 tablespoons butter\n\n\n1 clove garlic, minced, or to taste\n\n\n½ teaspoon cumin\n\n\n½ teaspoon ground coriander\n\n\n½ teaspoon garam masala\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon minced fresh ginger, or to taste\n\n\n1 pinch cayenne pepper, or more to taste\n\n\n  salt and ground black pepper to taste\n\n\n1  lime, cut into wedges\n\n\n¼ cup chopped fresh cilantro, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head cauliflower, broken into florets\n\n\n3 tablespoons butter\n\n\n1 clove garlic, minced, or to taste\n\n\n½ teaspoon cumin\n\n\n½ teaspoon ground coriander\n\n\n½ teaspoon garam masala\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon minced fresh ginger, or to taste\n\n\n1 pinch cayenne pepper, or more to taste\n\n\n  salt and ground black pepper to taste\n\n\n1  lime, cut into wedges\n\n\n¼ cup chopped fresh cilantro, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Process cauliflower florets in a blender or food processor until broken into small pieces about the size of rice."},{"recipe_directions":"Heat butter in a skillet over medium-high heat; add cauliflower rice, garlic, cumin, coriander, garam masala, turmeric, ginger, cayenne pepper, salt, and black pepper. Cook, stirring occasionally, until cauliflower is softened, about 10 minutes."},{"recipe_directions":"Remove skillet from heat and add lime wedges and cilantro."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"},{"recipe_tags":"Rice"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"123\nCalories\n\n\n9g \nFat\n\n\n10g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656751-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1bRgP6SC7ViB9Q9uhK8vHev2rx0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1001279-8fc4ac60b5154eb095ef76b0d33278e6.jpg"
@@ -2228,59 +2445,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86755/garlic-rice/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Garlic Rice</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n2 tablespoons ground pork\n\n\n1 ½ tablespoons chopped garlic\n\n\n4 cups cooked white rice\n\n\n1 ½ teaspoons garlic salt\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n2 tablespoons ground pork\n\n\n1 ½ tablespoons chopped garlic\n\n\n4 cups cooked white rice\n\n\n1 ½ teaspoons garlic salt\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Cook and stir ground pork and garlic in hot oil until garlic is golden brown; do not allow garlic to burn, or it will taste bitter."},{"recipe_directions":"Stir in cooked rice; season with garlic salt and black pepper. Cook and stir until heated through and well blended, about 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n9g \nFat\n\n\n46g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656755-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KI563vy0FcqLZTk-ievdVsBifWo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3560799-bf3b3059cb0d47f9831345b71153d51b.jpg"
@@ -2293,59 +2506,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20749/country-style-fried-potatoes/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Country-Style Fried Potatoes</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat shortening in a large cast iron skillet over medium-high heat. Add potatoes and cook, stirring occasionally, until potatoes are golden brown. Season with salt, pepper, garlic powder, and paprika. Serve hot."},{"recipe_directions":"You may use oil instead of shortening if desired."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n12g \nFat\n\n\n52g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656761-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zsBbb2pFaAfq7HAhiSuWVounQj8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Onion-Rice-1x1-1-2000-934617581fe2411e83c1032f5376e387.jpg"
@@ -2359,59 +2568,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18316/onion-rice/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Onion Rice</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  red onion, chopped\n\n\n1 cup long-grain white rice\n\n\n1 teaspoon ground black pepper\n\n\n2 cups chicken broth"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  red onion, chopped\n\n\n1 cup long-grain white rice\n\n\n1 teaspoon ground black pepper\n\n\n2 cups chicken broth'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a saucepan over medium heat. Stir in the onion, and cook until almost tender. Stir in rice, and continue cooking until coated with oil. When onion is tender and rice begins to brown lightly, season with pepper, and pour in the broth. Bring to a boil. Reduce heat to low, cover, and simmer 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"141\nCalories\n\n\n3g \nFat\n\n\n27g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656765-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yTwQTizF3xwj0rsGdUqQbz2oR0g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2435742-low-carb-zucchini-pasta-Allrecipes-Magazine-1x1-1-3d5aa77485ab4772971d5d80ebbccd93.jpg"
@@ -2425,59 +2630,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233453/low-carb-zucchini-pasta/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Low-Carb Zucchini Pasta</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 zucchini, peeled\n\n\n1 tablespoon olive oil\n\n\n¼ cup water\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 zucchini, peeled\n\n\n1 tablespoon olive oil\n\n\n¼ cup water\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Use a vegetable peeler to cut long, wide strips down one side of one zucchini until you reach the seeds. Turn zucchini and repeat on three remaining sides. Repeat with remaining zucchini. Discard zucchini cores."},{"recipe_directions":"Stack zucchini strips on top of each other, then cut thin strips lengthwise along the stack; strips will resemble spaghetti noodles."},{"recipe_directions":"Heat oil in a skillet over medium heat. Add zucchini \"noodles\" and cook for 1 minute. Add water and continue to cook until zucchini is softened and water has evaporated, 5 to 7 minutes. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n14g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656771-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ixf_pJb-c1o4_Hqt-bZACbEe2q8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/210528-17a1ccd3e6f6438197749b7fdd03f6e5.jpg"
@@ -2490,59 +2691,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/47613/sugar-snap-peas/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Sugar Snap Peas</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound sugar snap peas\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped shallots\n\n\n1 teaspoon chopped fresh thyme\n\n\n  kosher salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound sugar snap peas\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped shallots\n\n\n1 teaspoon chopped fresh thyme\n\n\n  kosher salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Spread sugar snap peas in a single layer on a baking sheet and brush with olive oil. Sprinkle with shallots, thyme, and kosher salt."},{"recipe_directions":"Bake in the preheated oven until tender yet firm, 6 to 8 minutes."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"59\nCalories\n\n\n3g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656776-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XaNj7BJ8e7i8UdyBXveu744WsFw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/676702-b01cda1a8a7c42a4b693d8fc06864e36.jpg"
@@ -2555,59 +2752,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18907/mexican-corn/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Mexican Corn</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (15.25 ounce) cans whole kernel corn, drained\n\n\n1 (8 ounce) package cream cheese\n\n\n¼ cup butter\n\n\n10  jalapeno peppers, chopped\n\n\n1 teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (15.25 ounce) cans whole kernel corn, drained\n\n\n1 (8 ounce) package cream cheese\n\n\n¼ cup butter\n\n\n10  jalapeno peppers, chopped\n\n\n1 teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium saucepan combine corn, cream cheese, butter, jalapeno peppers and garlic salt. Cook over medium heat for about 10 minutes or until heated through, stirring constantly after cream cheese begins to melt."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Corn"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"359\nCalories\n\n\n23g \nFat\n\n\n38g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656781-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BOiHoMigIHip-fSZS1Z4iPFFpL0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(724x0:726x2):format(webp)/9363671-2781929968304469881d54be1b87118e.jpg"
@@ -2620,59 +2813,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/73346/southern-as-you-can-get-collard-greens/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Southern as You Can Get Collard Greens</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch collard greens - rinsed, trimmed and chopped\n\n\n2  smoked ham hocks\n\n\n2 (10.5 ounce) cans condensed chicken broth\n\n\n21 fluid ounces water\n\n\n1 tablespoon distilled white vinegar\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch collard greens - rinsed, trimmed and chopped\n\n\n2  smoked ham hocks\n\n\n2 (10.5 ounce) cans condensed chicken broth\n\n\n21 fluid ounces water\n\n\n1 tablespoon distilled white vinegar\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the collard greens and ham hocks in a large pot. Mix in the chicken broth, water, and vinegar. Season with salt and pepper. Bring to a boil, reduce heat to low, and simmer 1 hour."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"165\nCalories\n\n\n11g \nFat\n\n\n3g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656786-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r2RZJkyZinFqAR6wNbgB87XIRKc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/54346-Applesauce-Tammy-Lynn-1x1-1-2000-7841a69361d940e6b273e7512ba80971.jpg"
@@ -2686,59 +2875,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/54346/applesauce/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Applesauce</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a 2 quart saucepan over medium heat, combine apples, water, cinnamon, and cloves. Bring to a boil, reduce heat, and simmer 10 minutes. Stir in sugar, and simmer 5 more minutes."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n0g \nFat\n\n\n51g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656790-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CkQyDAyBYg9DwW005btmrp6ffFk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7759069-883265da407f48e09c929cf03c45345f.jpg"
@@ -2751,59 +2936,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15013/dirty-rice/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Dirty Rice</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n3 cloves garlic, minced\n\n\n1 cup chopped onion\n\n\n1  green bell pepper, chopped\n\n\n1 tablespoon chili powder\n\n\n2 teaspoons annatto or achiote powder (Optional)\n\n\n¼ teaspoon crushed red pepper\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon ground cinnamon\n\n\n1 ⅓ cups uncooked white rice\n\n\n2 ¾ cups water\n\n\n1 teaspoon salt\n\n\n3  roma (plum) tomatoes, chopped\n\n\n1 ⅓ cups whole corn kernels, blanched\n\n\n1 cup black beans, cooked and drained\n\n\n¼ cup toasted pine nuts\n\n\n  freshly ground black pepper\n\n\n1  red onion, thinly sliced\n\n\n1 tablespoon fresh lime juice\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  lime, cut into wedges\n\n\n2 teaspoons annatto powder (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n3 cloves garlic, minced\n\n\n1 cup chopped onion\n\n\n1  green bell pepper, chopped\n\n\n1 tablespoon chili powder\n\n\n2 teaspoons annatto or achiote powder (Optional)\n\n\n¼ teaspoon crushed red pepper\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon ground cinnamon\n\n\n1 ⅓ cups uncooked white rice\n\n\n2 ¾ cups water\n\n\n1 teaspoon salt\n\n\n3  roma (plum) tomatoes, chopped\n\n\n1 ⅓ cups whole corn kernels, blanched\n\n\n1 cup black beans, cooked and drained\n\n\n¼ cup toasted pine nuts\n\n\n  freshly ground black pepper\n\n\n1  red onion, thinly sliced\n\n\n1 tablespoon fresh lime juice\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  lime, cut into wedges\n\n\n2 teaspoons annatto powder (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a heavy saucepan, heat 1 tablespoon of the olive oil over medium heat. Add the garlic and the chopped onions; saute for 5 minutes, stirring frequently. Mix in the bell pepper, chili powder, ground annatto, chili flakes, cumin, and cinnamon. Saute for 2 minutes."},{"recipe_directions":"Pour the rice into the saucepan and stir to coat. Add the water and 1 teaspoon salt, and bring the rice to a boil over high heat. Cover the pan and turn the heat to low. Simmer the rice for 25 minutes."},{"recipe_directions":"When the rice is cooked, mix in tomatoes, corn, black beans, and pine nuts. Stir in salt, pepper and lime juice. When the mixture is heated through, spoon it onto plates and top with the sliced red onion and cilantro. Serve a wedge or two of lime with each plate to squeeze over the rice."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Beans and Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"409\nCalories\n\n\n9g \nFat\n\n\n71g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656796-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Uiw_liHvDf6lp31gdFdExwXJSUU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2642x0:2644x2):format(webp)/9442947-28119cb060704765a14389e4667a8ae8.jpg"
@@ -2816,59 +2997,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18028/potato-pancakes-ii/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Easy Leftover Potato Pancakes</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n5 \n\n\nYield:\n10 pancakes"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups mashed potatoes\n\n\n¼ cup shredded Cheddar cheese\n\n\n1 large egg, beaten\n\n\n1 teaspoon salt\n\n\n1 tablespoon butter\n\n\n1/2 cup to 3/4 cup all-purpose flour as needed (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mashed potatoes\n\n\n¼ cup shredded Cheddar cheese\n\n\n1 large egg, beaten\n\n\n1 teaspoon salt\n\n\n1 tablespoon butter\n\n\n1/2 cup to 3/4 cup all-purpose flour as needed (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix potatoes, cheese, beaten egg, and salt in a medium bowl until well combined. If the mixture is very wet, mix in flour as needed to bind mixture together."},{"recipe_directions":"Melt butter on a large griddle over medium heat. Drop potato mixture onto the hot griddle, 1/4 cup at a time. Flatten each pancake with the back of a spatula to 1/2-inch thickness. Fry until golden brown, about 5 minutes per side. Serve hot."},{"recipe_directions":"This recipe was tested in our test kitchen and updated to include flour to act as a binder if needed."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n15g \nFat\n\n\n24g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656802-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/u3CvPmJdRuThKFoSfgl5nrLjYS4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/2278425-how-to-make-farinata-SLIMMETTE-1x1-1-9bb9521a4d914090b75f8b34fced2387.jpg"
@@ -2882,59 +3059,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235473/how-to-make-farinata/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>How to Make Farinata</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 35 mins\n\n\nServings:\n6 \n\n\nYield:\n1 (10-inch) pancake"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups lukewarm water\n\n\n1 ½ cups garbanzo flour\n\n\n5 tablespoons olive oil, divided\n\n\n1 ½ teaspoons kosher salt\n\n\n½ teaspoon minced fresh rosemary (Optional)\n\n\n  freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups lukewarm water\n\n\n1 ½ cups garbanzo flour\n\n\n5 tablespoons olive oil, divided\n\n\n1 ½ teaspoons kosher salt\n\n\n½ teaspoon minced fresh rosemary (Optional)\n\n\n  freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together lukewarm water and garbanzo flour in a large bowl until smooth. Cover the bowl with plastic wrap or a plate and let stand at room temperature for 2 hours. Skim off as much foam as possible from the top of batter. Whisk 3 tablespoons olive oil, kosher salt, and rosemary into batter until well combined."},{"recipe_directions":"Preheat the oven to 500 degrees F (260 degrees C)."},{"recipe_directions":"Heat a 10-inch cast iron skillet over high heat until smoking hot. Pour remaining 2 tablespoons olive oil into the skillet and swirl to coat the bottom. Continue to heat until oil shimmers and a wisp of smoke rises from oil."},{"recipe_directions":"Quickly pour batter into hot oil; carefully transfer the skillet to the preheated oven."},{"recipe_directions":"Bake in the preheated oven until pancake is browned and crusty, 25 to 30 minutes. Transfer pancake immediately to a plate and cut into wedges. Garnish with freshly ground black pepper and serve hot."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"190\nCalories\n\n\n12g \nFat\n\n\n15g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656806-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OoNQpk8GT4w6ybfBDP8uOSCooc0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2408x1480:2410x1482):format(webp)/70312-Refried-Beans-Without-the-Fry-DDMFS-4X3-2643-f6a23c1b1e5d41108f8a1e7a07284202.jpg"
@@ -2948,59 +3121,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70312/refried-beans-without-the-refry/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Refried Beans Without the Refry</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n15"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups dry pinto beans, rinsed\n\n\n1  onion, peeled and halved\n\n\n½  fresh jalapeno pepper, seeded and chopped\n\n\n2 tablespoons minced garlic\n\n\n5 teaspoons salt\n\n\n1 ¾ teaspoons fresh ground black pepper \n\n\n⅛ teaspoon ground cumin, optional\n\n\n9 cups water"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups dry pinto beans, rinsed\n\n\n1  onion, peeled and halved\n\n\n½  fresh jalapeno pepper, seeded and chopped\n\n\n2 tablespoons minced garlic\n\n\n5 teaspoons salt\n\n\n1 ¾ teaspoons fresh ground black pepper \n\n\n⅛ teaspoon ground cumin, optional\n\n\n9 cups water'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place beans, onion, jalapeño, garlic, salt, pepper, and cumin into a slow cooker. Pour in water; stir to combine."},{"recipe_directions":"Cook on High until beans are very tender, about 8 hours; add more water as needed."},{"recipe_directions":"Strain beans and reserve cooking liquid."},{"recipe_directions":"Transfer beans to a large, shallow bowl. Use a potato masher to mash beans, adding reserved cooking liquid as needed to reach desired consistency."},{"recipe_directions":"Enjoy!"},{"recipe_directions":"If more than 1 cup water has evaporated during cooking in step 2, then the temperature is too high."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"139\nCalories\n\n\n1g \nFat\n\n\n25g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656811-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Mx6zdvYO2ssGK6v0FXPV3kkqcek=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/363608-quinoa-side-dish-Alberta-Rose-1x1-1-94d23b8bf3b645b2a9402f85cb7394db.jpg"
@@ -3014,59 +3183,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/29915/quinoa-side-dish/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Quinoa Side Dish</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n1 cup uncooked quinoa\n\n\n2 cups vegetable broth\n\n\n2 teaspoons chopped garlic\n\n\n2 tablespoons chopped fresh parsley\n\n\n½ tablespoon chopped fresh thyme\n\n\n¼ teaspoon salt\n\n\n1 small onion, finely chopped\n\n\n1 dash fresh lemon juice (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n1 cup uncooked quinoa\n\n\n2 cups vegetable broth\n\n\n2 teaspoons chopped garlic\n\n\n2 tablespoons chopped fresh parsley\n\n\n½ tablespoon chopped fresh thyme\n\n\n¼ teaspoon salt\n\n\n1 small onion, finely chopped\n\n\n1 dash fresh lemon juice (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a saucepan over medium heat. Add quinoa and toast, stirring occasionally, until lightly browned, about 5 minutes. Stir in broth and bring to a boil. Reduce the heat, cover, and simmer until tender, about 15 minutes."},{"recipe_directions":"Remove from the heat and transfer to a bowl. Stir in garlic, parsley, thyme, salt, and onion until combined. Sprinkle lemon juice over top."},{"recipe_directions":"Please note differences in ingredient amounts and total time when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n6g \nFat\n\n\n32g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656816-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5uB24du72rcAU7ONiVn_R5X1xAA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/892991-7b3bbca134c844be892875531f30da4b.jpg"
@@ -3079,59 +3244,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22308/fried-plantains/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Fried Plantains</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups oil for frying, or as needed\n\n\n2 large plantains"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups oil for frying, or as needed\n\n\n2 large plantains'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oil in a large, deep skillet over medium-high heat."},{"recipe_directions":"Peel plantains. Cut in half crosswise, then cut each half lengthwise into thin pieces."},{"recipe_directions":"Working in batches, fry plantains in the hot oil until browned and crispy on the outside and tender on the inside, 2 to 3 minutes per side. Drain on a paper towel-lined plate."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"595\nCalories\n\n\n55g \nFat\n\n\n29g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656820-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QBsDzyALhMH175Rrs5WDEtUY8yM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1046676-spiced-slow-cooker-applesauce-NERDBOX-4x3-1-60881fed06964230acd0b8864e20c3c8.jpg"
@@ -3145,59 +3306,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/149218/spiced-slow-cooker-applesauce/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Slow Cooker Applesauce</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 6 hrs 30 mins\n\n\nTotal Time:\n 6 hrs 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  apples - peeled, cored, and thinly sliced\n\n\n½ cup water\n\n\n¾ cup packed brown sugar\n\n\n½ teaspoon pumpkin pie spice"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  apples - peeled, cored, and thinly sliced\n\n\n½ cup water\n\n\n¾ cup packed brown sugar\n\n\n½ teaspoon pumpkin pie spice'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine apples and water in a slow cooker; cook on Low for 6 to 8 hours. Stir in brown sugar and pumpkin pie spice; continue cooking another 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"151\nCalories\n\n\n0g \nFat\n\n\n39g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656825-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/h7x4ULiGwFxHuRDjmo_cSkREMZA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5437972-6ae4696055964c88bc0405a21398f87c.jpg"
@@ -3210,59 +3367,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263876/best-instant-pot-scalloped-potatoes/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Best Instant Pot Scalloped Potatoes</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds Yukon gold or red potato, cut into 1/4-inch slices\n\n\n1 cup vegetable broth\n\n\n½ teaspoon salt\n\n\n2 cups shredded sharp Cheddar cheese, divided\n\n\n3 tablespoons heavy cream\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds Yukon gold or red potato, cut into 1/4-inch slices\n\n\n1 cup vegetable broth\n\n\n½ teaspoon salt\n\n\n2 cups shredded sharp Cheddar cheese, divided\n\n\n3 tablespoons heavy cream\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine potatoes, broth, and salt in a multi-functional pressure cooker (such as Instant Pot). Close and lock the lid. Select high pressure according to manufacturer's instructions; set the timer for 1 minute. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Meanwhile, set an oven rack about 6 inches from the heat source and preheat the oven's broiler."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Carefully transfer potatoes to a deep 8-inch square baking dish."},{"recipe_directions":"Combine 1 1/2 cups Cheddar cheese, cream, garlic powder, pepper, and nutmeg in the pressure cooker with the remaining liquid; select Sauté function and cook until smooth and creamy, about 5 minutes."},{"recipe_directions":"Pour sauce evenly over potatoes and sprinkle with remaining 1/2 cup Cheddar cheese."},{"recipe_directions":"Broil in the preheated oven until cheese is golden, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Scalloped Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"506\nCalories\n\n\n27g \nFat\n\n\n44g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656829-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pCYw98fkLINpzvadqYlYxq0Qh5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/391627-1c7808110d4d42beaf30e828ec4a77bf.jpg"
@@ -3276,59 +3429,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/152937/ethiopian-cabbage-dish/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Ethiopian Cabbage Dish</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup olive oil\n\n\n4 medium carrots, thinly sliced\n\n\n1 medium onion, thinly sliced\n\n\n½ head green cabbage, shredded\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin, or to taste\n\n\n¼ teaspoon ground turmeric, or to taste\n\n\n5 medium potatoes, peeled and cut into 1-inch cubes"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup olive oil\n\n\n4 medium carrots, thinly sliced\n\n\n1 medium onion, thinly sliced\n\n\n½ head green cabbage, shredded\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin, or to taste\n\n\n¼ teaspoon ground turmeric, or to taste\n\n\n5 medium potatoes, peeled and cut into 1-inch cubes'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over medium heat. Add carrots and onion; cook and stir until beginning to soften, about 5 minutes. Stir in cabbage, salt, pepper, cumin, and turmeric; cook for 15 to 20 minutes."},{"recipe_directions":"Add potatoes; reduce heat to medium-low, cover, and cook until potatoes are soft, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cabbage"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"407\nCalories\n\n\n22g \nFat\n\n\n50g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656832-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ndZBvcz8CfeZtsvkiuLPGYwm6jI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/851205-a7f730fa3acd4e36ab93cc25641d7055.jpg"
@@ -3341,59 +3490,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/144529/beets-on-the-grill/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Beets on the Grill</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n6  beets, scrubbed\n\n\n2 tablespoons butter\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n6  beets, scrubbed\n\n\n2 tablespoons butter\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for high heat."},{"recipe_directions":"Coat one side of a large piece of aluminum foil with cooking spray. Place beets and butter on foil; season with salt and pepper. Wrap foil over beets."},{"recipe_directions":"Place packet on the grill grate. Cook until beets are very tender, about 30 minutes."},{"recipe_directions":"Allow beets to cool before serving, about 5 minutes."},{"recipe_directions":""}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"208\nCalories\n\n\n12g \nFat\n\n\n24g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656836-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e1JiRGIGQ-70aCKvrkeqD46YPOw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1030239-quick-and-simple-broccoli-and-cheese-pomplemousse-1x1-1-c3e7d91f765a49308773053809525558.jpg"
@@ -3407,59 +3552,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21155/quick-and-simple-broccoli-and-cheese/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Quick and Simple Broccoli and Cheese</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10 ounce) package frozen broccoli florets, thawed\n\n\n3 tablespoons butter, melted, or to taste\n\n\n  salt and pepper to taste\n\n\n½ cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10 ounce) package frozen broccoli florets, thawed\n\n\n3 tablespoons butter, melted, or to taste\n\n\n  salt and pepper to taste\n\n\n½ cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place broccoli in a steamer over 1 inch of boiling water and cover. Cook until tender but still firm, 2 to 6 minutes. Drain and transfer to a microwave-safe casserole dish."},{"recipe_directions":"Pour melted butter over broccoli and season with salt and pepper. Sprinkle cheese over the top and microwave on high until cheese is melted, about 1 minute."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n14g \nFat\n\n\n4g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656839-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p3Tk1BimtV0HELxsuXmktg1795c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/49552_Quinoaandblackbeans_ddmfs_4x3_2745-46315412dc4f42fab1296ebee4765507.jpg"
@@ -3473,59 +3614,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49552/quinoa-and-black-beans/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Quinoa and Black Beans</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Heat oil in a large saucepan over medium heat. Add onion and garlic; cook and stir until lightly browned, about 10 minutes."},{"recipe_directions":"Mix quinoa into onion mixture and cover with vegetable broth; season with cumin, cayenne pepper, salt, and pepper."},{"recipe_directions":"Bring to a boil; cover, reduce heat, and simmer until quinoa is tender and broth is absorbed, about 20 minutes."},{"recipe_directions":"Stir in frozen corn and continue to simmer until heated through, about 5 minutes. Mix in black beans and cilantro."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"153\nCalories\n\n\n2g \nFat\n\n\n28g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656843-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DpIb-IbovlWhLFRTy7MTDwSiF8E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(956x0:958x2):format(webp)/4535439-564adcef998c47bebfcb6d9c5aa2a3df.jpg"
@@ -3538,59 +3675,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16409/spinach-and-strawberry-salad/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Spinach and Strawberry Salad</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 bunches spinach, rinsed and torn into bite-size pieces\n\n\n4 cups sliced strawberries\n\n\n½ cup vegetable oil\n\n\n½ cup white sugar\n\n\n¼ cup white wine vinegar\n\n\n2 tablespoons sesame seeds\n\n\n1 tablespoon poppy seeds\n\n\n¼ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 bunches spinach, rinsed and torn into bite-size pieces\n\n\n4 cups sliced strawberries\n\n\n½ cup vegetable oil\n\n\n½ cup white sugar\n\n\n¼ cup white wine vinegar\n\n\n2 tablespoons sesame seeds\n\n\n1 tablespoon poppy seeds\n\n\n¼ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss together spinach and strawberries in a large bowl."},{"recipe_directions":"Whisk oil, sugar, vinegar, sesame seeds, poppy seeds, and paprika together in a medium bowl. Pour over the spinach and strawberries, and toss to coat."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Spinach Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"235\nCalories\n\n\n16g \nFat\n\n\n23g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656847-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pag6syn5FILMk4GPeKYwDBcGah4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/15213-the-best-mashed-potatoes-DDMFS-4x3-d1967878ad484711ba1875625c67699b.jpg"
@@ -3604,59 +3737,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15213/the-best-mashed-potatoes/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>The Best Mashed Potatoes</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 pounds Yukon Gold potatoes\n\n\n2 cups Parmesan cheese\n\n\n1 ½ cups cream cheese\n\n\n1 cup chopped fresh chives\n\n\n½ cup butter\n\n\n½ medium head garlic, peeled and minced\n\n\n1 pinch salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 pounds Yukon Gold potatoes\n\n\n2 cups Parmesan cheese\n\n\n1 ½ cups cream cheese\n\n\n1 cup chopped fresh chives\n\n\n½ cup butter\n\n\n½ medium head garlic, peeled and minced\n\n\n1 pinch salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Peel and quarter potatoes; place in a large pot. Cover with salted water and bring to a boil. Cook until tender but still firm, about 15 minutes."},{"recipe_directions":"Drain and return potatoes to the pot over low heat to dry for 1 to 2 minutes."},{"recipe_directions":"Add Parmesan cheese, cream cheese, chives, butter, garlic, salt, and pepper."},{"recipe_directions":"Use a potato masher to mash until smooth and serve."},{"recipe_directions":"Serve hot and enjoy"},{"recipe_directions":"Please note differences in ingredient amounts and total time when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Mashed Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"381\nCalories\n\n\n22g \nFat\n\n\n36g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656850-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6YIBNCeEl6Ihd3CDFGehHg3pfG0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4348157-6949e7176d9b49b2bb5d1e71df0aa21f.jpg"
@@ -3669,59 +3798,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/73565/asparagus-wrapped-in-crisp-prosciutto/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Asparagus Wrapped in Crisp Prosciutto</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n16 spears"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n16 spears fresh asparagus, trimmed\n\n\n16 slices prosciutto"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n16 spears fresh asparagus, trimmed\n\n\n16 slices prosciutto'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (220 degrees C). Line a baking sheet with aluminum foil, and coat with olive oil."},{"recipe_directions":"Wrap one slice of prosciutto around each asparagus spear, starting at the bottom, and spiraling up to the tip. Place the wrapped spears on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven for 5 minutes. Remove, and shake the pan back and forth to roll the spears over. Return to the oven until asparagus is tender and prosciutto is crisp, another 5 minutes. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Quick and Easy"},{"recipe_tags":"Appetizers"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"255\nCalories\n\n\n22g \nFat\n\n\n3g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656853-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SP2rGMmWO168L4XJxboXGLK7cZo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1056430-e500abbb3de2488fa02f3e66376aef44.jpg"
@@ -3734,59 +3859,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25894/slow-cooker-creamed-corn/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Slow Cooker Creamed Corn</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ (16 ounce) packages frozen corn kernels\n\n\n1 (8 ounce) package cream cheese\n\n\n½ cup butter\n\n\n½ cup milk\n\n\n1 tablespoon white sugar\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ (16 ounce) packages frozen corn kernels\n\n\n1 (8 ounce) package cream cheese\n\n\n½ cup butter\n\n\n½ cup milk\n\n\n1 tablespoon white sugar\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine corn, cream cheese, butter, milk, and sugar in a slow cooker. Season with salt and pepper to taste."},{"recipe_directions":"Cook on Low for 4 to 6 hours or High for 2 to 4 hours."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Corn"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"193\nCalories\n\n\n15g \nFat\n\n\n14g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656857-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zRbtL5KAEJGySfxMrFja9cP1uHo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/21672-SauteedApples-ddmfs-Step5-0055-00e1950fab834d7a9d988794925e1bc5.jpg"
@@ -3800,59 +3921,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21672/sauteed-apples/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Sautéed Apples</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n4 large tart apples - peeled, cored and sliced 1/4 inch thick\n\n\n½ cup cold water\n\n\n2 teaspoons cornstarch\n\n\n½ cup brown sugar\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter\n\n\n4 large tart apples - peeled, cored and sliced 1/4 inch thick\n\n\n½ cup cold water\n\n\n2 teaspoons cornstarch\n\n\n½ cup brown sugar\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a large skillet or saucepan over medium heat."},{"recipe_directions":"Add apples and cook, stirring constantly, until almost tender, 6 to 7 minutes."},{"recipe_directions":"Mix water and cornstarch together in a small bowl until cornstarch is dissolved; pour over apples. Stir in brown sugar and cinnamon. Bring to a boil for 2 minutes, stirring occasionally."},{"recipe_directions":"Remove from heat and serve warm."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"143\nCalories\n\n\n6g \nFat\n\n\n24g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656861-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xzK3TNWb6_2fEsYxtOmPKMsMkOo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1482x0:1484x2):format(webp)/4533368-e0b1100855a147938530bacca6b467e8.jpg"
@@ -3865,59 +3982,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13608/make-ahead-mashed-potatoes/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Make-Ahead Mashed Potatoes</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n45 mins\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 pounds Yukon Gold potatoes, cubed\n\n\n8 ounces sour cream\n\n\n2 (3 ounce) packages cream cheese\n\n\n½ cup milk\n\n\n2 teaspoons onion salt\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 pounds Yukon Gold potatoes, cubed\n\n\n8 ounces sour cream\n\n\n2 (3 ounce) packages cream cheese\n\n\n½ cup milk\n\n\n2 teaspoons onion salt\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Save time this holiday season with this rich, creamy, and flavorful make-ahead mashed potato recipes."},{"recipe_directions":"You’ll need just a few basic ingredients to prep this make-ahead mashed potato recipe:"},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you make make-ahead mashed potatoes:"},{"recipe_directions":"When you’re ready to bake, let the potatoes come to room temperature. Bake at 325 degrees F for 50 minutes."},{"recipe_directions":"Yes! If you plan on serving these right away, preheat the oven to 325 degrees F (165 degrees C) before you start cooking the potatoes in Step 1. Then follow Steps 1, 2, and 5."},{"recipe_directions":"“A definite time-saver,” raves cookinLOLLY. “And ohhhh so good! I put dollops of butter along the top when baking. Make sure to cover with foil when baking.”"},{"recipe_directions":"“We have made this for many holiday dinners,” says LAURENELYSE. “You can also put these in a Crock-Pot for 5 to 6 hours. It's a great way to keep them warm without the hassle of watching over them!”"},{"recipe_directions":"“I make these for big events and freeze them in ice cream pails,” according to Pat Jorgenson. “Thaw, stir and put into casserole dishes or foil pans and cook according to size.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Place potatoes in a large pot of lightly salted water. Bring to a boil and cook until tender, about 15 minutes; drain."},{"recipe_directions":"Transfer potatoes into a large bowl and mash. Stir in sour cream, cream cheese, milk, onion salt, and pepper until well combined. Transfer into a large casserole dish."},{"recipe_directions":"Let potatoes cool completely, 15 to 20 minutes. Cover with aluminum foil and refrigerate for up to 2 days."},{"recipe_directions":"When ready to bake, remove casserole from the refrigerator and let sit for 30 minutes on the counter. Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Bake, covered, in the preheated oven for 50 minutes."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Mashed Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"245\nCalories\n\n\n9g \nFat\n\n\n36g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656865-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8WfXdIiyzAfflARB7jfCCuLe7CQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/5421181-crisp-pickled-green-beans-Chad-Ellis-4x3-1-67c454e71d7e4b51a967e5e05245c33d.jpg"
@@ -3931,59 +4044,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/62594/crisp-pickled-green-beans/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Crisp Pickled Green Beans</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n14 days 8 hrs\n\n\nTotal Time:\n14 days 8 hrs 35 mins\n\n\nServings:\n48 \n\n\nYield:\n6 (1/2-pint) jars"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups distilled white vinegar\n\n\n2 cups water\n\n\n¼ cup salt\n\n\n1 clove garlic, peeled\n\n\n2 ½ pounds fresh green beans\n\n\n6 large sprigs dill\n\n\n¾ teaspoon red pepper flakes (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups distilled white vinegar\n\n\n2 cups water\n\n\n¼ cup salt\n\n\n1 clove garlic, peeled\n\n\n2 ½ pounds fresh green beans\n\n\n6 large sprigs dill\n\n\n¾ teaspoon red pepper flakes (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Inspect six 1/2-pint jars for cracks and rings for rust, discarding any defective ones. Immerse in simmering water. Wash new, unused lids and rings in warm soapy water."},{"recipe_directions":"While the jars are bring sterilized, stir together vinegar, water, and salt in a large saucepan. Add garlic and bring to a rolling boil over high heat."},{"recipe_directions":"Trim green beans to 1/4-inch shorter than the jars."},{"recipe_directions":"Remove jars from simmering water. Place 1 sprig of dill and 1/8 teaspoon red pepper flakes in each jar. Pack in green beans standing on end."},{"recipe_directions":"Ladle boiling brine (leave out garlic) into the jars, filling within 1/4-inch of the tops. Seal jars with lids and rings."},{"recipe_directions":"Place a rack in the bottom of a large stockpot and fill halfway with water. Bring to a boil and lower jars 2 inches apart into the boiling water using a holder. Pour in more boiling water to cover jars by at least 1 inch. Bring to a simmer (do not boil), cover, and process for 10 minutes."},{"recipe_directions":"Remove jars from the stockpot and cool to room temperature, 8 to 12 hours. Test jars for a good seal by pressing on the center of the lid — it should not move."},{"recipe_directions":"Let green beans ferment for 2 to 3 weeks in a cool, dark space before eating."},{"recipe_directions":"If any jars do not seal properly, refrigerate and eat those beans within a week."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Canning and Preserving Recipes"},{"recipe_tags":"Pickles"},{"recipe_tags":"Pickles"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"8\nCalories\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656868-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HM0A9zogY1xLABRoN8j8xiVrj_o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/226330-e0c7432dde2345ba9891fe9c2f306f36.jpg"
@@ -3996,59 +4105,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13933/black-bean-and-corn-salad-ii/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Black Bean and Corn Salad</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup olive oil\n\n\n⅓ cup fresh lime juice\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n⅛ teaspoon ground cayenne pepper\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n1 ½ cups frozen corn kernels\n\n\n1  avocado - peeled, pitted and diced\n\n\n1  red bell pepper, chopped\n\n\n2  tomatoes, chopped\n\n\n6  green onions, thinly sliced\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup olive oil\n\n\n⅓ cup fresh lime juice\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n⅛ teaspoon ground cayenne pepper\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n1 ½ cups frozen corn kernels\n\n\n1  avocado - peeled, pitted and diced\n\n\n1  red bell pepper, chopped\n\n\n2  tomatoes, chopped\n\n\n6  green onions, thinly sliced\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place olive oil, lime juice, garlic, salt, and cayenne pepper in a small jar. Close the lid tightly and shake the jar until the dressing is well combined."},{"recipe_directions":"Combine in a salad bowl beans, corn, avocado, bell pepper, tomatoes, green onions, and cilantro."},{"recipe_directions":"Shake dressing again, pour over salad, and toss to coat."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Black Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"391\nCalories\n\n\n25g \nFat\n\n\n35g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656871-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1698/healthy-recipes/gluten-free/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vYSJwR9LT6XSzZXdhnoDSYZ09w8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/232142-0369424451774189ad2c3fb6a41b834d.jpg"
@@ -4061,42 +4166,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50281/mushy-peas-i/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Mushy Peas</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10 ounce) package frozen green peas\n\n\n¼ cup heavy cream\n\n\n1 tablespoon butter\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10 ounce) package frozen green peas\n\n\n¼ cup heavy cream\n\n\n1 tablespoon butter\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a shallow pot of lightly salted water to a boil over medium-high heat. Add frozen peas, and cook for 3 minutes, or until tender."},{"recipe_directions":"Drain peas, and transfer to a blender or large food processor. Add cream, butter, salt, and pepper, and process until blended, but still thick with small pieces of peas."},{"recipe_directions":"Adjust seasonings to taste, and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Peas"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"132\nCalories\n\n\n9g \nFat\n\n\n10g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>